--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44826</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45020</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43641</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44117</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44616</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44679</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43851</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43895</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44715</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44867</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44157</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45019</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>45069</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43846</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43851</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43901</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44068</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44320</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44615</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44862</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44925</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45040</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43483</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44384</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44406</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44406</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44619</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44839</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44980</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45043</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43749</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44102</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44410</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>44455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44631</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44673</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44715</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44862</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44904</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44993</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45014</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45019</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45128</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45165</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43332</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43346</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43353</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43355</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43364</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43368</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>43370</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>43374</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>43385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43406</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43409</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43413</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43415</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>43416</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43422</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>43444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43452</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43454</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>43455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>43464</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43473</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43474</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43475</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43476</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>43482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43495</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>43504</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>43509</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>43516</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43522</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43535</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43537</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43538</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43539</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43549</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43550</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43553</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43572</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43588</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43591</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43595</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43605</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43613</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43620</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>43633</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>43634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43639</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43640</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43641</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43642</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43651</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43693</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43699</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43714</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43717</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43719</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>43720</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>43724</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43727</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43734</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43751</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43776</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43783</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43795</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43796</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43801</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>43805</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>43820</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>43843</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>43844</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>43859</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>43885</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43887</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43888</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>43913</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>43921</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>43942</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>43945</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>43950</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>43952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>43959</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43961</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>43965</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43976</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43986</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43991</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43999</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44000</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44006</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44008</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44018</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44019</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44021</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44046</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44050</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44060</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32594,7 +32594,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34319,7 +34319,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34547,7 +34547,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34604,7 +34604,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34661,7 +34661,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35360,7 +35360,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35417,7 +35417,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37209,7 +37209,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39031,7 +39031,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39088,7 +39088,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40776,7 +40776,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40890,7 +40890,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40952,7 +40952,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41009,7 +41009,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41128,7 +41128,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41728,7 +41728,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41966,7 +41966,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42085,7 +42085,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45493,7 +45493,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44826</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45020</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43641</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44117</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44616</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44679</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43851</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43895</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44715</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44867</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44157</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45019</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>45069</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43846</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43851</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43901</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44068</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44320</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44615</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44862</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44925</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45040</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43483</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44384</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44406</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44406</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44619</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44839</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44980</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45043</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43749</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44102</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44410</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>44455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44631</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44673</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44715</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44862</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44904</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44993</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45014</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45019</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45128</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45165</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43332</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43346</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43353</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43355</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43364</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43368</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>43370</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>43374</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>43385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43406</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43409</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43413</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43415</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>43416</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43422</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>43444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43452</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43454</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>43455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>43464</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43473</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43474</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43475</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43476</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>43482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43495</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>43504</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>43509</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>43516</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43522</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43535</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43537</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43538</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43539</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43549</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43550</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43553</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43572</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43588</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43591</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43595</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43605</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43613</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43620</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>43633</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>43634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43639</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43640</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43641</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43642</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43651</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43693</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43699</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43714</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43717</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43719</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>43720</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>43724</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43727</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43734</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43751</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43776</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43783</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43795</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43796</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43801</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>43805</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>43820</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>43843</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>43844</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>43859</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>43885</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43887</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43888</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>43913</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>43921</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>43942</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>43945</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>43950</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>43952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>43959</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43961</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>43965</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43976</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43986</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43991</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43999</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44000</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44006</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44008</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44018</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44019</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44021</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44046</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44050</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44060</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32594,7 +32594,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34319,7 +34319,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34547,7 +34547,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34604,7 +34604,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34661,7 +34661,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35360,7 +35360,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35417,7 +35417,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37209,7 +37209,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39031,7 +39031,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39088,7 +39088,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40776,7 +40776,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40890,7 +40890,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40952,7 +40952,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41009,7 +41009,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41128,7 +41128,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41728,7 +41728,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41966,7 +41966,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42085,7 +42085,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45493,7 +45493,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y754"/>
+  <dimension ref="A1:Y755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44826</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45020</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43641</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44117</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44616</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44679</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43851</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43895</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44715</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44867</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44157</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45019</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>45069</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43846</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43851</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43901</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44068</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44320</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44615</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44862</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44925</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45040</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43483</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44384</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44406</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44406</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44619</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44839</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44980</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45043</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43749</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44102</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44410</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>44455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44631</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44673</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44715</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44862</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44904</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44993</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45014</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45019</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45128</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45165</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43332</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43346</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43353</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43355</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43364</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43368</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>43370</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>43374</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>43385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43406</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43409</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43413</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43415</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>43416</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43422</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>43444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43452</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43454</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>43455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>43464</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43473</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43474</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43475</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43476</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>43482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43495</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>43504</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>43509</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>43516</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43522</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43535</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43537</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43538</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43539</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43549</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43550</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43553</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43572</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43588</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43591</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43595</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43605</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43613</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43620</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>43633</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>43634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43639</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43640</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43641</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43642</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43651</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43693</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43699</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43714</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43717</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43719</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>43720</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>43724</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43727</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43734</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43751</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43776</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43783</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43795</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43796</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43801</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>43805</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>43820</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>43843</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>43844</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>43859</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>43885</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43887</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43888</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>43913</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>43921</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>43942</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>43945</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>43950</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>43952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>43959</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43961</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>43965</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43976</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43986</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43991</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43999</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44000</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44006</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44008</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44018</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44019</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44021</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44046</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44050</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44060</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32594,7 +32594,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34319,7 +34319,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34547,7 +34547,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34604,7 +34604,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34661,7 +34661,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35360,7 +35360,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35417,7 +35417,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37209,7 +37209,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39031,7 +39031,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39088,7 +39088,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40776,7 +40776,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40890,7 +40890,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40952,7 +40952,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41009,7 +41009,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41128,7 +41128,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41728,7 +41728,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41966,7 +41966,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42085,7 +42085,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45493,7 +45493,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="R753" s="2" t="inlineStr"/>
     </row>
-    <row r="754">
+    <row r="754" ht="15" customHeight="1">
       <c r="A754" t="inlineStr">
         <is>
           <t>A 39945-2023</t>
@@ -46829,7 +46829,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46875,6 +46875,68 @@
         <v>0</v>
       </c>
       <c r="R754" s="2" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>A 41594-2023</t>
+        </is>
+      </c>
+      <c r="B755" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C755" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G755" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0</v>
+      </c>
+      <c r="J755" t="n">
+        <v>0</v>
+      </c>
+      <c r="K755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N755" t="n">
+        <v>0</v>
+      </c>
+      <c r="O755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R755" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44826</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45020</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43641</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44117</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44616</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44679</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43851</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43895</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44715</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44867</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44157</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45019</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>45069</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43846</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43851</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43901</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44068</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44320</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44615</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44862</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44925</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45040</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43483</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44384</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44406</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44406</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44619</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44839</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44980</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45043</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43749</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44102</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44410</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>44455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44631</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44673</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44715</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44862</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44904</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44993</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45014</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45019</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45128</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45165</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43332</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43346</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43353</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43355</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43364</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43368</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>43370</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>43374</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>43385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43406</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43409</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43413</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43415</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>43416</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43422</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>43444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43452</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43454</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>43455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>43464</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43473</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43474</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43475</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43476</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>43482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43495</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>43504</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>43509</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>43516</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43522</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43535</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43537</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43538</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43539</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43549</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43550</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43553</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43572</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43588</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43591</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43595</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43605</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43613</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43620</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>43633</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>43634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43639</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43640</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43641</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43642</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43651</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43693</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43699</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43714</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43717</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43719</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>43720</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>43724</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43727</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43734</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43751</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43776</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43783</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43795</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43796</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43801</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>43805</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>43820</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>43843</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>43844</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>43859</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>43885</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43887</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43888</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>43913</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>43921</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>43942</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>43945</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>43950</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>43952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>43959</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43961</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>43965</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43976</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43986</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43991</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43999</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44000</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44006</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44008</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44018</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44019</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44021</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44046</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44050</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44060</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32594,7 +32594,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34319,7 +34319,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34547,7 +34547,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34604,7 +34604,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34661,7 +34661,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35360,7 +35360,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35417,7 +35417,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37209,7 +37209,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39031,7 +39031,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39088,7 +39088,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40776,7 +40776,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40890,7 +40890,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40952,7 +40952,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41009,7 +41009,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41128,7 +41128,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41728,7 +41728,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41966,7 +41966,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42085,7 +42085,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45493,7 +45493,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46886,7 +46886,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44826</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45020</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43641</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44117</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44616</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44679</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43851</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43895</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44715</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>44867</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44157</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44785</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45019</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>45069</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43846</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43900</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43851</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43901</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44068</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44320</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44615</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44862</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44925</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45040</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43483</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44384</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44406</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44406</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44619</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44839</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44980</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45043</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43749</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44102</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44410</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44440</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>44455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44631</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44673</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44715</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44862</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44904</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44993</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45014</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45019</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45128</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45165</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43332</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43346</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43353</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43355</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43364</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43368</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>43370</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>43374</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>43385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43406</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43409</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43413</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43415</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>43416</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43422</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43424</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43433</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43440</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>43444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>43451</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43452</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43454</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>43455</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>43464</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43473</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43474</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43475</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43476</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>43482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>43495</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>43504</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>43509</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>43516</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43522</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43535</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43537</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43538</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43539</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43549</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43550</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43553</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43572</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43588</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43591</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43595</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43605</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43613</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43620</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>43633</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>43634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43639</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43640</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43641</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43642</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43649</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43651</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43693</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43699</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43714</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43717</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43719</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>43720</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>43724</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43727</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43734</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43735</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>43738</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43751</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43776</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>43783</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>43795</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>43796</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>43801</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>43805</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>43820</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>43843</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>43844</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>43859</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>43885</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43887</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43888</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>43889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>43909</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>43913</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>43921</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>43942</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>43945</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>43950</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>43952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>43959</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>43961</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>43963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>43965</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>43976</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43980</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43986</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>43991</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>43993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>43999</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44000</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44006</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44008</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44018</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44019</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44021</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44046</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44050</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44060</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32594,7 +32594,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34319,7 +34319,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34547,7 +34547,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34604,7 +34604,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34661,7 +34661,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35360,7 +35360,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35417,7 +35417,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36463,7 +36463,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36577,7 +36577,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36748,7 +36748,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37038,7 +37038,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37209,7 +37209,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38260,7 +38260,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38317,7 +38317,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38731,7 +38731,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39031,7 +39031,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39088,7 +39088,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40362,7 +40362,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40419,7 +40419,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40776,7 +40776,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40890,7 +40890,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40952,7 +40952,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41009,7 +41009,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41071,7 +41071,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41128,7 +41128,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41314,7 +41314,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41371,7 +41371,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41671,7 +41671,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41728,7 +41728,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41847,7 +41847,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41966,7 +41966,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42085,7 +42085,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45493,7 +45493,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45783,7 +45783,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45897,7 +45897,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46886,7 +46886,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44980</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44826</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>43641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44616</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44679</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43851</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45019</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45069</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43846</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43900</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44060</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43901</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>44068</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44714</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45040</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44384</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44619</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44839</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45043</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44102</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44631</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44673</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44715</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44837</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45014</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>45165</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43332</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43346</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43350</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43364</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43374</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>43405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43406</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43409</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43415</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43423</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43452</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43464</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43487</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43535</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43549</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43550</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>43588</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43591</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43620</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43633</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43634</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43640</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>43650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43699</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43707</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43795</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43796</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43843</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43844</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43853</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43859</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43887</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43910</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43913</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43942</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43945</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43950</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43955</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43976</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>43980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>43999</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44000</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44006</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44011</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44012</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44018</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44019</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44046</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44050</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32575,7 +32575,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33150,7 +33150,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33207,7 +33207,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35455,7 +35455,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35859,7 +35859,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35978,7 +35978,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36149,7 +36149,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36330,7 +36330,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36501,7 +36501,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36558,7 +36558,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36615,7 +36615,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38117,7 +38117,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38769,7 +38769,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39126,7 +39126,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39183,7 +39183,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39240,7 +39240,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39297,7 +39297,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39354,7 +39354,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41528,7 +41528,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41828,7 +41828,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42604,7 +42604,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43008,7 +43008,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43065,7 +43065,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43122,7 +43122,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43179,7 +43179,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43236,7 +43236,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43635,7 +43635,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43692,7 +43692,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43806,7 +43806,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43863,7 +43863,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44153,7 +44153,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44210,7 +44210,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44267,7 +44267,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44438,7 +44438,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44666,7 +44666,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45065,7 +45065,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45122,7 +45122,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45179,7 +45179,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46168,7 +46168,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y755"/>
+  <dimension ref="A1:Y758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44980</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44826</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>43641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44616</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44679</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43851</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45019</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45069</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43846</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43900</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44060</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43901</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>44068</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44714</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45040</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44384</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44619</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44839</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45043</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44102</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44631</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44673</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44715</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44837</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45014</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>45165</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43332</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43346</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43350</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43364</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43374</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>43405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43406</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43409</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43415</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43423</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43452</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43464</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43487</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43535</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43549</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43550</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>43588</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43591</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43620</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43633</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43634</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43640</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>43650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43699</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43707</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43795</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43796</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43843</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43844</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43853</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43859</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43887</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43910</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43913</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43942</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43945</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43950</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43955</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43976</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>43980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>43999</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44000</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44006</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44011</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44012</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44018</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44019</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44046</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44050</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32575,7 +32575,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33150,7 +33150,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33207,7 +33207,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35455,7 +35455,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35859,7 +35859,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35978,7 +35978,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36149,7 +36149,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36330,7 +36330,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36501,7 +36501,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36558,7 +36558,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36615,7 +36615,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38117,7 +38117,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38769,7 +38769,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39126,7 +39126,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39183,7 +39183,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39240,7 +39240,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39297,7 +39297,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39354,7 +39354,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41528,7 +41528,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41828,7 +41828,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42604,7 +42604,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43008,7 +43008,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43065,7 +43065,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43122,7 +43122,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43179,7 +43179,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43236,7 +43236,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43635,7 +43635,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43692,7 +43692,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43806,7 +43806,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43863,7 +43863,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44153,7 +44153,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44210,7 +44210,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44267,7 +44267,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44438,7 +44438,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44666,7 +44666,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45065,7 +45065,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45122,7 +45122,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45179,7 +45179,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46168,7 +46168,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
       </c>
       <c r="R754" s="2" t="inlineStr"/>
     </row>
-    <row r="755">
+    <row r="755" ht="15" customHeight="1">
       <c r="A755" t="inlineStr">
         <is>
           <t>A 41594-2023</t>
@@ -46924,7 +46924,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46975,6 +46975,182 @@
         <v>0</v>
       </c>
       <c r="R755" s="2" t="inlineStr"/>
+    </row>
+    <row r="756" ht="15" customHeight="1">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>A 43011-2023</t>
+        </is>
+      </c>
+      <c r="B756" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C756" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G756" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0</v>
+      </c>
+      <c r="J756" t="n">
+        <v>0</v>
+      </c>
+      <c r="K756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N756" t="n">
+        <v>0</v>
+      </c>
+      <c r="O756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R756" s="2" t="inlineStr"/>
+    </row>
+    <row r="757" ht="15" customHeight="1">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>A 43163-2023</t>
+        </is>
+      </c>
+      <c r="B757" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C757" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="G757" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0</v>
+      </c>
+      <c r="J757" t="n">
+        <v>0</v>
+      </c>
+      <c r="K757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N757" t="n">
+        <v>0</v>
+      </c>
+      <c r="O757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R757" s="2" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>A 43154-2023</t>
+        </is>
+      </c>
+      <c r="B758" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C758" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="G758" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0</v>
+      </c>
+      <c r="J758" t="n">
+        <v>0</v>
+      </c>
+      <c r="K758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N758" t="n">
+        <v>0</v>
+      </c>
+      <c r="O758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R758" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -645,27 +645,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 40297-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 40297-2022.xlsx", "A 40297-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 40297-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 40297-2022.png", "A 40297-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 40297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 40297-2022.docx", "A 40297-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 40297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 40297-2022.docx", "A 40297-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 40297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 40297-2022.docx", "A 40297-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 40297-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 40297-2022.docx", "A 40297-2022")</f>
         <v/>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,27 +739,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 31252-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 31252-2019.xlsx", "A 31252-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 31252-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 31252-2019.png", "A 31252-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 31252-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 31252-2019.docx", "A 31252-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 31252-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 31252-2019.docx", "A 31252-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 31252-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 31252-2019.docx", "A 31252-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 31252-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 31252-2019.docx", "A 31252-2019")</f>
         <v/>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,27 +837,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 35039-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 35039-2022.xlsx", "A 35039-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 35039-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 35039-2022.png", "A 35039-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 35039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 35039-2022.docx", "A 35039-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 35039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 35039-2022.docx", "A 35039-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 35039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 35039-2022.docx", "A 35039-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 35039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 35039-2022.docx", "A 35039-2022")</f>
         <v/>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,27 +930,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 51198-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 51198-2022.xlsx", "A 51198-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 51198-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 51198-2022.png", "A 51198-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 51198-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 51198-2022.docx", "A 51198-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 51198-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 51198-2022.docx", "A 51198-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 51198-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 51198-2022.docx", "A 51198-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 51198-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 51198-2022.docx", "A 51198-2022")</f>
         <v/>
       </c>
     </row>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,27 +1023,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 8708-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 8708-2023.xlsx", "A 8708-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 8708-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 8708-2023.png", "A 8708-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 8708-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 8708-2023.docx", "A 8708-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 8708-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 8708-2023.docx", "A 8708-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 8708-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 8708-2023.docx", "A 8708-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 8708-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 8708-2023.docx", "A 8708-2023")</f>
         <v/>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>44980</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,27 +1121,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 10371-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 10371-2023.xlsx", "A 10371-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 10371-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 10371-2023.png", "A 10371-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 10371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 10371-2023.docx", "A 10371-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 10371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 10371-2023.docx", "A 10371-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 10371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 10371-2023.docx", "A 10371-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 10371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 10371-2023.docx", "A 10371-2023")</f>
         <v/>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
         <v>44826</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,27 +1213,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 41407-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 41407-2022.xlsx", "A 41407-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 41407-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 41407-2022.png", "A 41407-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 41407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 41407-2022.docx", "A 41407-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 41407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 41407-2022.docx", "A 41407-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 41407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 41407-2022.docx", "A 41407-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 41407-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 41407-2022.docx", "A 41407-2022")</f>
         <v/>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,27 +1310,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 15738-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 15738-2023.xlsx", "A 15738-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 15738-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 15738-2023.png", "A 15738-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 15738-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 15738-2023.docx", "A 15738-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 15738-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 15738-2023.docx", "A 15738-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 15738-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 15738-2023.docx", "A 15738-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 15738-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 15738-2023.docx", "A 15738-2023")</f>
         <v/>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         <v>43641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,27 +1401,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 31314-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 31314-2019.xlsx", "A 31314-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 31314-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 31314-2019.png", "A 31314-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 31314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 31314-2019.docx", "A 31314-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 31314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 31314-2019.docx", "A 31314-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 31314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 31314-2019.docx", "A 31314-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 31314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 31314-2019.docx", "A 31314-2019")</f>
         <v/>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
         <v>44117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1497,31 +1497,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 52153-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 52153-2020.xlsx", "A 52153-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 52153-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 52153-2020.png", "A 52153-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/knärot/A 52153-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/knärot/A 52153-2020.png", "A 52153-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 52153-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 52153-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 52153-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 52153-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
         <v>44616</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,27 +1592,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 9245-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 9245-2022.xlsx", "A 9245-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 9245-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 9245-2022.png", "A 9245-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 9245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 9245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 9245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 9245-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
         <v>44679</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,27 +1688,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 17522-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 17522-2022.xlsx", "A 17522-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 17522-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 17522-2022.png", "A 17522-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 17522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 17522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 17522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 17522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,27 +1779,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 30187-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 30187-2023.xlsx", "A 30187-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 30187-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 30187-2023.png", "A 30187-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 30187-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 30187-2023.docx", "A 30187-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 30187-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 30187-2023.docx", "A 30187-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 30187-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 30187-2023.docx", "A 30187-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 30187-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 30187-2023.docx", "A 30187-2023")</f>
         <v/>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>43851</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,27 +1874,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 3019-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 3019-2020.xlsx", "A 3019-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 3019-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 3019-2020.png", "A 3019-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 3019-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 3019-2020.docx", "A 3019-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 3019-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 3019-2020.docx", "A 3019-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 3019-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 3019-2020.docx", "A 3019-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 3019-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 3019-2020.docx", "A 3019-2020")</f>
         <v/>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,27 +1969,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 12237-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 12237-2020.xlsx", "A 12237-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 12237-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 12237-2020.png", "A 12237-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 12237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 12237-2020.docx", "A 12237-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 12237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 12237-2020.docx", "A 12237-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 12237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 12237-2020.docx", "A 12237-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 12237-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 12237-2020.docx", "A 12237-2020")</f>
         <v/>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
         <v>44427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,27 +2064,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 42391-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 42391-2021.xlsx", "A 42391-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 42391-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 42391-2021.png", "A 42391-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 42391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 42391-2021.docx", "A 42391-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 42391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 42391-2021.docx", "A 42391-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 42391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 42391-2021.docx", "A 42391-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 42391-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 42391-2021.docx", "A 42391-2021")</f>
         <v/>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,27 +2154,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 23008-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 23008-2022.xlsx", "A 23008-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 23008-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 23008-2022.png", "A 23008-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 23008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 23008-2022.docx", "A 23008-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 23008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 23008-2022.docx", "A 23008-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 23008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 23008-2022.docx", "A 23008-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 23008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 23008-2022.docx", "A 23008-2022")</f>
         <v/>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2244,27 +2244,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 50969-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 50969-2022.xlsx", "A 50969-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 50969-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 50969-2022.png", "A 50969-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 50969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 50969-2022.docx", "A 50969-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 50969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 50969-2022.docx", "A 50969-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 50969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 50969-2022.docx", "A 50969-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 50969-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 50969-2022.docx", "A 50969-2022")</f>
         <v/>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2333,27 +2333,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 37062-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 37062-2018.xlsx", "A 37062-2018")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 37062-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 37062-2018.png", "A 37062-2018")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 37062-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 37062-2018.docx", "A 37062-2018")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 37062-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 37062-2018.docx", "A 37062-2018")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 37062-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 37062-2018.docx", "A 37062-2018")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 37062-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 37062-2018.docx", "A 37062-2018")</f>
         <v/>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2422,27 +2422,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 61439-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 61439-2020.xlsx", "A 61439-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 61439-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 61439-2020.png", "A 61439-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 61439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 61439-2020.docx", "A 61439-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 61439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 61439-2020.docx", "A 61439-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 61439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 61439-2020.docx", "A 61439-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 61439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 61439-2020.docx", "A 61439-2020")</f>
         <v/>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,27 +2511,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 13479-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 13479-2022.xlsx", "A 13479-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 13479-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 13479-2022.png", "A 13479-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 13479-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 13479-2022.docx", "A 13479-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 13479-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 13479-2022.docx", "A 13479-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 13479-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 13479-2022.docx", "A 13479-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 13479-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 13479-2022.docx", "A 13479-2022")</f>
         <v/>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2605,27 +2605,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 33004-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 33004-2022.xlsx", "A 33004-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 33004-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 33004-2022.png", "A 33004-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 33004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 33004-2022.docx", "A 33004-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 33004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 33004-2022.docx", "A 33004-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 33004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 33004-2022.docx", "A 33004-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 33004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 33004-2022.docx", "A 33004-2022")</f>
         <v/>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2699,27 +2699,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 39912-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 39912-2022.xlsx", "A 39912-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 39912-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 39912-2022.png", "A 39912-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 39912-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 39912-2022.docx", "A 39912-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 39912-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 39912-2022.docx", "A 39912-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 39912-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 39912-2022.docx", "A 39912-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 39912-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 39912-2022.docx", "A 39912-2022")</f>
         <v/>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
         <v>45019</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,27 +2793,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 15648-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 15648-2023.xlsx", "A 15648-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 15648-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 15648-2023.png", "A 15648-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 15648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 15648-2023.docx", "A 15648-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 15648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 15648-2023.docx", "A 15648-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 15648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 15648-2023.docx", "A 15648-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 15648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 15648-2023.docx", "A 15648-2023")</f>
         <v/>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>45069</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2882,27 +2882,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 22203-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 22203-2023.xlsx", "A 22203-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 22203-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 22203-2023.png", "A 22203-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 22203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 22203-2023.docx", "A 22203-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 22203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 22203-2023.docx", "A 22203-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 22203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 22203-2023.docx", "A 22203-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 22203-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 22203-2023.docx", "A 22203-2023")</f>
         <v/>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
         <v>43846</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,27 +2970,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 2336-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 2336-2020.xlsx", "A 2336-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 2336-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 2336-2020.png", "A 2336-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 2336-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 2336-2020.docx", "A 2336-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 2336-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 2336-2020.docx", "A 2336-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 2336-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 2336-2020.docx", "A 2336-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 2336-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 2336-2020.docx", "A 2336-2020")</f>
         <v/>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
         <v>43900</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3063,27 +3063,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 13048-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 13048-2020.xlsx", "A 13048-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 13048-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 13048-2020.png", "A 13048-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 13048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 13048-2020.docx", "A 13048-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 13048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 13048-2020.docx", "A 13048-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 13048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 13048-2020.docx", "A 13048-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 13048-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 13048-2020.docx", "A 13048-2020")</f>
         <v/>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
         <v>44060</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,27 +3156,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38314-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38314-2020.xlsx", "A 38314-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38314-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38314-2020.png", "A 38314-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38314-2020.docx", "A 38314-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38314-2020.docx", "A 38314-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38314-2020.docx", "A 38314-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38314-2020.docx", "A 38314-2020")</f>
         <v/>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
         <v>44407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3249,27 +3249,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38688-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38688-2021.xlsx", "A 38688-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38688-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38688-2021.png", "A 38688-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38688-2021.docx", "A 38688-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38688-2021.docx", "A 38688-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38688-2021.docx", "A 38688-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38688-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38688-2021.docx", "A 38688-2021")</f>
         <v/>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
         <v>43391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,27 +3336,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 55793-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 55793-2018.xlsx", "A 55793-2018")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 55793-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 55793-2018.png", "A 55793-2018")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 55793-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 55793-2018.docx", "A 55793-2018")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 55793-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 55793-2018.docx", "A 55793-2018")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 55793-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 55793-2018.docx", "A 55793-2018")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 55793-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 55793-2018.docx", "A 55793-2018")</f>
         <v/>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
         <v>43851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3423,27 +3423,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 3109-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 3109-2020.xlsx", "A 3109-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 3109-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 3109-2020.png", "A 3109-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 3109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 3109-2020.docx", "A 3109-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 3109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 3109-2020.docx", "A 3109-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 3109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 3109-2020.docx", "A 3109-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 3109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 3109-2020.docx", "A 3109-2020")</f>
         <v/>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
         <v>43901</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3510,27 +3510,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 14267-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 14267-2020.xlsx", "A 14267-2020")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 14267-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 14267-2020.png", "A 14267-2020")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 14267-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 14267-2020.docx", "A 14267-2020")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 14267-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 14267-2020.docx", "A 14267-2020")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 14267-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 14267-2020.docx", "A 14267-2020")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 14267-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 14267-2020.docx", "A 14267-2020")</f>
         <v/>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
         <v>44068</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,27 +3602,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 40421-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 40421-2020.xlsx", "A 40421-2020")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 40421-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 40421-2020.png", "A 40421-2020")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 40421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 40421-2020.docx", "A 40421-2020")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 40421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 40421-2020.docx", "A 40421-2020")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 40421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 40421-2020.docx", "A 40421-2020")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 40421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 40421-2020.docx", "A 40421-2020")</f>
         <v/>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
         <v>44320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3689,27 +3689,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 21287-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 21287-2021.xlsx", "A 21287-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 21287-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 21287-2021.png", "A 21287-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 21287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 21287-2021.docx", "A 21287-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 21287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 21287-2021.docx", "A 21287-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 21287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 21287-2021.docx", "A 21287-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 21287-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 21287-2021.docx", "A 21287-2021")</f>
         <v/>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3781,27 +3781,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38686-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38686-2021.xlsx", "A 38686-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38686-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38686-2021.png", "A 38686-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38686-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38686-2021.docx", "A 38686-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38686-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38686-2021.docx", "A 38686-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38686-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38686-2021.docx", "A 38686-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38686-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38686-2021.docx", "A 38686-2021")</f>
         <v/>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3868,27 +3868,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 9195-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 9195-2022.xlsx", "A 9195-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 9195-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 9195-2022.png", "A 9195-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 9195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 9195-2022.docx", "A 9195-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 9195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 9195-2022.docx", "A 9195-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 9195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 9195-2022.docx", "A 9195-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 9195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 9195-2022.docx", "A 9195-2022")</f>
         <v/>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>44714</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3955,27 +3955,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 22607-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 22607-2022.xlsx", "A 22607-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 22607-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 22607-2022.png", "A 22607-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 22607-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 22607-2022.docx", "A 22607-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 22607-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 22607-2022.docx", "A 22607-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 22607-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 22607-2022.docx", "A 22607-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 22607-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 22607-2022.docx", "A 22607-2022")</f>
         <v/>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4047,27 +4047,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 49644-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 49644-2022.xlsx", "A 49644-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 49644-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 49644-2022.png", "A 49644-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 49644-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 49644-2022.docx", "A 49644-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 49644-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 49644-2022.docx", "A 49644-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 49644-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 49644-2022.docx", "A 49644-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 49644-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 49644-2022.docx", "A 49644-2022")</f>
         <v/>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
         <v>44925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4134,27 +4134,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 684-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 684-2023.xlsx", "A 684-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 684-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 684-2023.png", "A 684-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 684-2023.docx", "A 684-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 684-2023.docx", "A 684-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 684-2023.docx", "A 684-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 684-2023.docx", "A 684-2023")</f>
         <v/>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
         <v>45040</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4221,27 +4221,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 18283-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 18283-2023.xlsx", "A 18283-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 18283-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 18283-2023.png", "A 18283-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 18283-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 18283-2023.docx", "A 18283-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 18283-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 18283-2023.docx", "A 18283-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 18283-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 18283-2023.docx", "A 18283-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 18283-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 18283-2023.docx", "A 18283-2023")</f>
         <v/>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4307,27 +4307,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 4374-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 4374-2019.xlsx", "A 4374-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 4374-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 4374-2019.png", "A 4374-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 4374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 4374-2019.docx", "A 4374-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 4374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 4374-2019.docx", "A 4374-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 4374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 4374-2019.docx", "A 4374-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 4374-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 4374-2019.docx", "A 4374-2019")</f>
         <v/>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4398,27 +4398,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 40420-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 40420-2020.xlsx", "A 40420-2020")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 40420-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 40420-2020.png", "A 40420-2020")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 40420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 40420-2020.docx", "A 40420-2020")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 40420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 40420-2020.docx", "A 40420-2020")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 40420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 40420-2020.docx", "A 40420-2020")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 40420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 40420-2020.docx", "A 40420-2020")</f>
         <v/>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
         <v>44384</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4484,27 +4484,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 35297-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 35297-2021.xlsx", "A 35297-2021")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 35297-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 35297-2021.png", "A 35297-2021")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 35297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 35297-2021.docx", "A 35297-2021")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 35297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 35297-2021.docx", "A 35297-2021")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 35297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 35297-2021.docx", "A 35297-2021")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 35297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 35297-2021.docx", "A 35297-2021")</f>
         <v/>
       </c>
     </row>
@@ -4518,7 +4518,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4575,27 +4575,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38443-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38443-2021.xlsx", "A 38443-2021")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38443-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38443-2021.png", "A 38443-2021")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38443-2021.docx", "A 38443-2021")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38443-2021.docx", "A 38443-2021")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38443-2021.docx", "A 38443-2021")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38443-2021.docx", "A 38443-2021")</f>
         <v/>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4666,27 +4666,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38400-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38400-2021.xlsx", "A 38400-2021")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38400-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38400-2021.png", "A 38400-2021")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38400-2021.docx", "A 38400-2021")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38400-2021.docx", "A 38400-2021")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38400-2021.docx", "A 38400-2021")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38400-2021.docx", "A 38400-2021")</f>
         <v/>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
         <v>44407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4757,27 +4757,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38689-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38689-2021.xlsx", "A 38689-2021")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38689-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38689-2021.png", "A 38689-2021")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38689-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38689-2021.docx", "A 38689-2021")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38689-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38689-2021.docx", "A 38689-2021")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38689-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38689-2021.docx", "A 38689-2021")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38689-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38689-2021.docx", "A 38689-2021")</f>
         <v/>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
         <v>44439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,27 +4848,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 45207-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 45207-2021.xlsx", "A 45207-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 45207-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 45207-2021.png", "A 45207-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 45207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 45207-2021.docx", "A 45207-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 45207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 45207-2021.docx", "A 45207-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 45207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 45207-2021.docx", "A 45207-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 45207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 45207-2021.docx", "A 45207-2021")</f>
         <v/>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
         <v>44619</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,27 +4934,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 9771-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 9771-2022.xlsx", "A 9771-2022")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 9771-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 9771-2022.png", "A 9771-2022")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 9771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 9771-2022.docx", "A 9771-2022")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 9771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 9771-2022.docx", "A 9771-2022")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 9771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 9771-2022.docx", "A 9771-2022")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 9771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 9771-2022.docx", "A 9771-2022")</f>
         <v/>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
         <v>44839</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5020,27 +5020,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 44687-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 44687-2022.xlsx", "A 44687-2022")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 44687-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 44687-2022.png", "A 44687-2022")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 44687-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 44687-2022.docx", "A 44687-2022")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 44687-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 44687-2022.docx", "A 44687-2022")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 44687-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 44687-2022.docx", "A 44687-2022")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 44687-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 44687-2022.docx", "A 44687-2022")</f>
         <v/>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5106,27 +5106,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 52635-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 52635-2022.xlsx", "A 52635-2022")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 52635-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 52635-2022.png", "A 52635-2022")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 52635-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 52635-2022.docx", "A 52635-2022")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 52635-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 52635-2022.docx", "A 52635-2022")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 52635-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 52635-2022.docx", "A 52635-2022")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 52635-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 52635-2022.docx", "A 52635-2022")</f>
         <v/>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
         <v>45043</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5192,27 +5192,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 18922-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 18922-2023.xlsx", "A 18922-2023")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 18922-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 18922-2023.png", "A 18922-2023")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 18922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 18922-2023.docx", "A 18922-2023")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 18922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 18922-2023.docx", "A 18922-2023")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 18922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 18922-2023.docx", "A 18922-2023")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 18922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 18922-2023.docx", "A 18922-2023")</f>
         <v/>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5277,27 +5277,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 4489-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 4489-2019.xlsx", "A 4489-2019")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 4489-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 4489-2019.png", "A 4489-2019")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 4489-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 4489-2019.docx", "A 4489-2019")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 4489-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 4489-2019.docx", "A 4489-2019")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 4489-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 4489-2019.docx", "A 4489-2019")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 4489-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 4489-2019.docx", "A 4489-2019")</f>
         <v/>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
         <v>43749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5362,27 +5362,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 53745-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 53745-2019.xlsx", "A 53745-2019")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 53745-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 53745-2019.png", "A 53745-2019")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 53745-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 53745-2019.docx", "A 53745-2019")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 53745-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 53745-2019.docx", "A 53745-2019")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 53745-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 53745-2019.docx", "A 53745-2019")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 53745-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 53745-2019.docx", "A 53745-2019")</f>
         <v/>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
         <v>43966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5447,27 +5447,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 23492-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 23492-2020.xlsx", "A 23492-2020")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 23492-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 23492-2020.png", "A 23492-2020")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 23492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 23492-2020.docx", "A 23492-2020")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 23492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 23492-2020.docx", "A 23492-2020")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 23492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 23492-2020.docx", "A 23492-2020")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 23492-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 23492-2020.docx", "A 23492-2020")</f>
         <v/>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
         <v>44102</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5532,27 +5532,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 48400-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 48400-2020.xlsx", "A 48400-2020")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 48400-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 48400-2020.png", "A 48400-2020")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 48400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 48400-2020.docx", "A 48400-2020")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 48400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 48400-2020.docx", "A 48400-2020")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 48400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 48400-2020.docx", "A 48400-2020")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 48400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 48400-2020.docx", "A 48400-2020")</f>
         <v/>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
         <v>44117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5617,27 +5617,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 52676-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 52676-2020.xlsx", "A 52676-2020")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 52676-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 52676-2020.png", "A 52676-2020")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 52676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 52676-2020.docx", "A 52676-2020")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 52676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 52676-2020.docx", "A 52676-2020")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 52676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 52676-2020.docx", "A 52676-2020")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 52676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 52676-2020.docx", "A 52676-2020")</f>
         <v/>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5707,27 +5707,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38390-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38390-2021.xlsx", "A 38390-2021")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38390-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38390-2021.png", "A 38390-2021")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38390-2021.docx", "A 38390-2021")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38390-2021.docx", "A 38390-2021")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38390-2021.docx", "A 38390-2021")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38390-2021.docx", "A 38390-2021")</f>
         <v/>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5797,27 +5797,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38437-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38437-2021.xlsx", "A 38437-2021")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38437-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38437-2021.png", "A 38437-2021")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38437-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38437-2021.docx", "A 38437-2021")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38437-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38437-2021.docx", "A 38437-2021")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38437-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38437-2021.docx", "A 38437-2021")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38437-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38437-2021.docx", "A 38437-2021")</f>
         <v/>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,27 +5887,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38396-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38396-2021.xlsx", "A 38396-2021")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38396-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38396-2021.png", "A 38396-2021")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38396-2021.docx", "A 38396-2021")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38396-2021.docx", "A 38396-2021")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38396-2021.docx", "A 38396-2021")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38396-2021.docx", "A 38396-2021")</f>
         <v/>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,27 +5972,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38393-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38393-2021.xlsx", "A 38393-2021")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38393-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38393-2021.png", "A 38393-2021")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38393-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38393-2021.docx", "A 38393-2021")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38393-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38393-2021.docx", "A 38393-2021")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38393-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38393-2021.docx", "A 38393-2021")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38393-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38393-2021.docx", "A 38393-2021")</f>
         <v/>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
         <v>44407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6062,27 +6062,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38545-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38545-2021.xlsx", "A 38545-2021")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38545-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38545-2021.png", "A 38545-2021")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38545-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38545-2021.docx", "A 38545-2021")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38545-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38545-2021.docx", "A 38545-2021")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38545-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38545-2021.docx", "A 38545-2021")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38545-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38545-2021.docx", "A 38545-2021")</f>
         <v/>
       </c>
     </row>
@@ -6096,7 +6096,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6152,27 +6152,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38742-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38742-2021.xlsx", "A 38742-2021")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38742-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38742-2021.png", "A 38742-2021")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38742-2021.docx", "A 38742-2021")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38742-2021.docx", "A 38742-2021")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38742-2021.docx", "A 38742-2021")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38742-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38742-2021.docx", "A 38742-2021")</f>
         <v/>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6242,27 +6242,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38700-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 38700-2021.xlsx", "A 38700-2021")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38700-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 38700-2021.png", "A 38700-2021")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38700-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 38700-2021.docx", "A 38700-2021")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38700-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 38700-2021.docx", "A 38700-2021")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38700-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 38700-2021.docx", "A 38700-2021")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38700-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 38700-2021.docx", "A 38700-2021")</f>
         <v/>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,27 +6332,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 45430-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 45430-2021.xlsx", "A 45430-2021")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 45430-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 45430-2021.png", "A 45430-2021")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 45430-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 45430-2021.docx", "A 45430-2021")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 45430-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 45430-2021.docx", "A 45430-2021")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 45430-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 45430-2021.docx", "A 45430-2021")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 45430-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 45430-2021.docx", "A 45430-2021")</f>
         <v/>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>44446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6417,27 +6417,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 47038-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 47038-2021.xlsx", "A 47038-2021")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 47038-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 47038-2021.png", "A 47038-2021")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 47038-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 47038-2021.docx", "A 47038-2021")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 47038-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 47038-2021.docx", "A 47038-2021")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 47038-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 47038-2021.docx", "A 47038-2021")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 47038-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 47038-2021.docx", "A 47038-2021")</f>
         <v/>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6502,27 +6502,27 @@
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 49774-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 49774-2021.xlsx", "A 49774-2021")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 49774-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 49774-2021.png", "A 49774-2021")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 49774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 49774-2021.docx", "A 49774-2021")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 49774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 49774-2021.docx", "A 49774-2021")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 49774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 49774-2021.docx", "A 49774-2021")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 49774-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 49774-2021.docx", "A 49774-2021")</f>
         <v/>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
         <v>44631</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6592,27 +6592,27 @@
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 11502-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 11502-2022.xlsx", "A 11502-2022")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 11502-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 11502-2022.png", "A 11502-2022")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 11502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 11502-2022.docx", "A 11502-2022")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 11502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 11502-2022.docx", "A 11502-2022")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 11502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 11502-2022.docx", "A 11502-2022")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 11502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 11502-2022.docx", "A 11502-2022")</f>
         <v/>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
         <v>44673</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6677,27 +6677,27 @@
         </is>
       </c>
       <c r="S69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 16839-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 16839-2022.xlsx", "A 16839-2022")</f>
         <v/>
       </c>
       <c r="T69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 16839-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 16839-2022.png", "A 16839-2022")</f>
         <v/>
       </c>
       <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 16839-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 16839-2022.docx", "A 16839-2022")</f>
         <v/>
       </c>
       <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 16839-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 16839-2022.docx", "A 16839-2022")</f>
         <v/>
       </c>
       <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 16839-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 16839-2022.docx", "A 16839-2022")</f>
         <v/>
       </c>
       <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 16839-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 16839-2022.docx", "A 16839-2022")</f>
         <v/>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
         <v>44715</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6762,27 +6762,27 @@
         </is>
       </c>
       <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 23035-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 23035-2022.xlsx", "A 23035-2022")</f>
         <v/>
       </c>
       <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 23035-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 23035-2022.png", "A 23035-2022")</f>
         <v/>
       </c>
       <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 23035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 23035-2022.docx", "A 23035-2022")</f>
         <v/>
       </c>
       <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 23035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 23035-2022.docx", "A 23035-2022")</f>
         <v/>
       </c>
       <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 23035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 23035-2022.docx", "A 23035-2022")</f>
         <v/>
       </c>
       <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 23035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 23035-2022.docx", "A 23035-2022")</f>
         <v/>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
         <v>44837</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6847,27 +6847,27 @@
         </is>
       </c>
       <c r="S71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 43519-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 43519-2022.xlsx", "A 43519-2022")</f>
         <v/>
       </c>
       <c r="T71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 43519-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 43519-2022.png", "A 43519-2022")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 43519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 43519-2022.docx", "A 43519-2022")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 43519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 43519-2022.docx", "A 43519-2022")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 43519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 43519-2022.docx", "A 43519-2022")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 43519-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 43519-2022.docx", "A 43519-2022")</f>
         <v/>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6937,27 +6937,27 @@
         </is>
       </c>
       <c r="S72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 49658-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 49658-2022.xlsx", "A 49658-2022")</f>
         <v/>
       </c>
       <c r="T72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 49658-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 49658-2022.png", "A 49658-2022")</f>
         <v/>
       </c>
       <c r="V72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 49658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 49658-2022.docx", "A 49658-2022")</f>
         <v/>
       </c>
       <c r="W72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 49658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 49658-2022.docx", "A 49658-2022")</f>
         <v/>
       </c>
       <c r="X72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 49658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 49658-2022.docx", "A 49658-2022")</f>
         <v/>
       </c>
       <c r="Y72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 49658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 49658-2022.docx", "A 49658-2022")</f>
         <v/>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
         <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7022,27 +7022,27 @@
         </is>
       </c>
       <c r="S73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 59075-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 59075-2022.xlsx", "A 59075-2022")</f>
         <v/>
       </c>
       <c r="T73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 59075-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 59075-2022.png", "A 59075-2022")</f>
         <v/>
       </c>
       <c r="V73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 59075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 59075-2022.docx", "A 59075-2022")</f>
         <v/>
       </c>
       <c r="W73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 59075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 59075-2022.docx", "A 59075-2022")</f>
         <v/>
       </c>
       <c r="X73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 59075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 59075-2022.docx", "A 59075-2022")</f>
         <v/>
       </c>
       <c r="Y73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 59075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 59075-2022.docx", "A 59075-2022")</f>
         <v/>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
         <v>44993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7107,27 +7107,27 @@
         </is>
       </c>
       <c r="S74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 11395-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 11395-2023.xlsx", "A 11395-2023")</f>
         <v/>
       </c>
       <c r="T74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 11395-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 11395-2023.png", "A 11395-2023")</f>
         <v/>
       </c>
       <c r="V74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 11395-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 11395-2023.docx", "A 11395-2023")</f>
         <v/>
       </c>
       <c r="W74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 11395-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 11395-2023.docx", "A 11395-2023")</f>
         <v/>
       </c>
       <c r="X74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 11395-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 11395-2023.docx", "A 11395-2023")</f>
         <v/>
       </c>
       <c r="Y74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 11395-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 11395-2023.docx", "A 11395-2023")</f>
         <v/>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
         <v>45014</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7197,27 +7197,27 @@
         </is>
       </c>
       <c r="S75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 14927-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 14927-2023.xlsx", "A 14927-2023")</f>
         <v/>
       </c>
       <c r="T75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 14927-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 14927-2023.png", "A 14927-2023")</f>
         <v/>
       </c>
       <c r="V75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 14927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 14927-2023.docx", "A 14927-2023")</f>
         <v/>
       </c>
       <c r="W75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 14927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 14927-2023.docx", "A 14927-2023")</f>
         <v/>
       </c>
       <c r="X75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 14927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 14927-2023.docx", "A 14927-2023")</f>
         <v/>
       </c>
       <c r="Y75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 14927-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 14927-2023.docx", "A 14927-2023")</f>
         <v/>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7287,27 +7287,27 @@
         </is>
       </c>
       <c r="S76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 15654-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 15654-2023.xlsx", "A 15654-2023")</f>
         <v/>
       </c>
       <c r="T76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 15654-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 15654-2023.png", "A 15654-2023")</f>
         <v/>
       </c>
       <c r="V76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 15654-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 15654-2023.docx", "A 15654-2023")</f>
         <v/>
       </c>
       <c r="W76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 15654-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 15654-2023.docx", "A 15654-2023")</f>
         <v/>
       </c>
       <c r="X76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 15654-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 15654-2023.docx", "A 15654-2023")</f>
         <v/>
       </c>
       <c r="Y76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 15654-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 15654-2023.docx", "A 15654-2023")</f>
         <v/>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7377,27 +7377,27 @@
         </is>
       </c>
       <c r="S77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 28262-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 28262-2023.xlsx", "A 28262-2023")</f>
         <v/>
       </c>
       <c r="T77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 28262-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 28262-2023.png", "A 28262-2023")</f>
         <v/>
       </c>
       <c r="V77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 28262-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 28262-2023.docx", "A 28262-2023")</f>
         <v/>
       </c>
       <c r="W77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 28262-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 28262-2023.docx", "A 28262-2023")</f>
         <v/>
       </c>
       <c r="X77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 28262-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 28262-2023.docx", "A 28262-2023")</f>
         <v/>
       </c>
       <c r="Y77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 28262-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 28262-2023.docx", "A 28262-2023")</f>
         <v/>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7462,27 +7462,27 @@
         </is>
       </c>
       <c r="S78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 31311-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 31311-2023.xlsx", "A 31311-2023")</f>
         <v/>
       </c>
       <c r="T78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 31311-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 31311-2023.png", "A 31311-2023")</f>
         <v/>
       </c>
       <c r="V78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 31311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 31311-2023.docx", "A 31311-2023")</f>
         <v/>
       </c>
       <c r="W78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 31311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 31311-2023.docx", "A 31311-2023")</f>
         <v/>
       </c>
       <c r="X78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 31311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 31311-2023.docx", "A 31311-2023")</f>
         <v/>
       </c>
       <c r="Y78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 31311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 31311-2023.docx", "A 31311-2023")</f>
         <v/>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7547,27 +7547,27 @@
         </is>
       </c>
       <c r="S79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 33419-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 33419-2023.xlsx", "A 33419-2023")</f>
         <v/>
       </c>
       <c r="T79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 33419-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 33419-2023.png", "A 33419-2023")</f>
         <v/>
       </c>
       <c r="V79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 33419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 33419-2023.docx", "A 33419-2023")</f>
         <v/>
       </c>
       <c r="W79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 33419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 33419-2023.docx", "A 33419-2023")</f>
         <v/>
       </c>
       <c r="X79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 33419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 33419-2023.docx", "A 33419-2023")</f>
         <v/>
       </c>
       <c r="Y79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 33419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 33419-2023.docx", "A 33419-2023")</f>
         <v/>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
         <v>45165</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7632,27 +7632,27 @@
         </is>
       </c>
       <c r="S80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 39118-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 39118-2023.xlsx", "A 39118-2023")</f>
         <v/>
       </c>
       <c r="T80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 39118-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 39118-2023.png", "A 39118-2023")</f>
         <v/>
       </c>
       <c r="V80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 39118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 39118-2023.docx", "A 39118-2023")</f>
         <v/>
       </c>
       <c r="W80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 39118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 39118-2023.docx", "A 39118-2023")</f>
         <v/>
       </c>
       <c r="X80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 39118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 39118-2023.docx", "A 39118-2023")</f>
         <v/>
       </c>
       <c r="Y80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 39118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 39118-2023.docx", "A 39118-2023")</f>
         <v/>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
         <v>43332</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43346</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43350</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43364</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43374</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>43405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43406</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43409</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43415</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43423</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43452</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43464</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43487</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43535</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43549</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43550</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>43588</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43591</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43620</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43633</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43634</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43640</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>43650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43699</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43707</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43795</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43796</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43843</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43844</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43853</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43859</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43887</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43910</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43913</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43942</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43945</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43950</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43955</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43976</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>43980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>43999</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44000</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44006</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44011</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44012</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44018</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44019</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44046</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44050</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32575,7 +32575,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33150,7 +33150,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33207,7 +33207,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35455,7 +35455,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35859,7 +35859,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35978,7 +35978,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36149,7 +36149,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36330,7 +36330,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36501,7 +36501,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36558,7 +36558,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36615,7 +36615,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38117,7 +38117,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38769,7 +38769,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39126,7 +39126,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39183,7 +39183,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39240,7 +39240,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39297,7 +39297,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39354,7 +39354,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41528,7 +41528,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41828,7 +41828,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42604,7 +42604,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43008,7 +43008,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43065,7 +43065,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43122,7 +43122,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43179,7 +43179,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43236,7 +43236,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43635,7 +43635,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43692,7 +43692,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43806,7 +43806,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43863,7 +43863,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44153,7 +44153,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44210,7 +44210,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44267,7 +44267,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44438,7 +44438,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44666,7 +44666,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45065,7 +45065,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45122,7 +45122,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45179,7 +45179,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46168,7 +46168,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46986,7 +46986,7 @@
         <v>45182</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>45183</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45183</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44980</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44826</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>43641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44616</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44679</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43851</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45019</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45069</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43846</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43900</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44060</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43901</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>44068</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44714</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45040</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44384</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44619</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44839</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45043</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44102</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44631</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44673</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44715</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44837</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45014</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>45165</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43332</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43346</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43350</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43364</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43374</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>43405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43406</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43409</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43415</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43423</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43452</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43464</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43487</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43535</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43549</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43550</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>43588</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43591</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43620</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43633</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43634</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43640</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>43650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43699</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43707</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43795</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43796</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43843</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43844</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43853</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43859</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43887</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43910</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43913</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43942</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43945</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43950</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43955</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43976</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>43980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>43999</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44000</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44006</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44011</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44012</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44018</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44019</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44046</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44050</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32575,7 +32575,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33150,7 +33150,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33207,7 +33207,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35455,7 +35455,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35859,7 +35859,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35978,7 +35978,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36149,7 +36149,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36330,7 +36330,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36501,7 +36501,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36558,7 +36558,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36615,7 +36615,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38117,7 +38117,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38769,7 +38769,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39126,7 +39126,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39183,7 +39183,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39240,7 +39240,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39297,7 +39297,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39354,7 +39354,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41528,7 +41528,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41828,7 +41828,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42604,7 +42604,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43008,7 +43008,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43065,7 +43065,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43122,7 +43122,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43179,7 +43179,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43236,7 +43236,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43635,7 +43635,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43692,7 +43692,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43806,7 +43806,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43863,7 +43863,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44153,7 +44153,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44210,7 +44210,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44267,7 +44267,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44438,7 +44438,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44666,7 +44666,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45065,7 +45065,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45122,7 +45122,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45179,7 +45179,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46168,7 +46168,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46986,7 +46986,7 @@
         <v>45182</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>45183</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45183</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y758"/>
+  <dimension ref="A1:Y759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44980</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44826</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>43641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44616</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44679</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43851</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45019</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45069</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43846</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43900</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44060</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43901</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>44068</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44714</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45040</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44384</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44619</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44839</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45043</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44102</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44631</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44673</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44715</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44837</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45014</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>45165</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43332</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43346</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43350</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43364</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43374</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>43405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43406</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43409</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43415</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43423</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43452</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43464</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43487</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43535</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43549</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43550</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>43572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>43588</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43591</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43620</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43633</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43634</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43640</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>43650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43699</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43707</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>43714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43795</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43796</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43843</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43844</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43853</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43859</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43887</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43910</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43913</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43942</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43945</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43950</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43955</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43976</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>43980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>43999</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44000</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44006</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44011</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44012</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44018</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44019</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44046</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44050</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32575,7 +32575,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33036,7 +33036,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33150,7 +33150,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33207,7 +33207,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34067,7 +34067,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35455,7 +35455,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35859,7 +35859,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35978,7 +35978,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36149,7 +36149,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36330,7 +36330,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36501,7 +36501,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36558,7 +36558,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36615,7 +36615,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37646,7 +37646,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37703,7 +37703,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38117,7 +38117,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38769,7 +38769,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39126,7 +39126,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39183,7 +39183,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39240,7 +39240,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39297,7 +39297,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39354,7 +39354,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41352,7 +41352,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41466,7 +41466,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41528,7 +41528,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41828,7 +41828,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42604,7 +42604,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43008,7 +43008,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43065,7 +43065,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43122,7 +43122,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43179,7 +43179,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43236,7 +43236,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43293,7 +43293,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43350,7 +43350,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43407,7 +43407,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43464,7 +43464,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43578,7 +43578,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43635,7 +43635,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43692,7 +43692,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43806,7 +43806,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43863,7 +43863,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44153,7 +44153,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44210,7 +44210,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44267,7 +44267,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44438,7 +44438,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44666,7 +44666,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45065,7 +45065,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45122,7 +45122,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45179,7 +45179,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46168,7 +46168,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46986,7 +46986,7 @@
         <v>45182</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>45183</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47095,7 +47095,7 @@
       </c>
       <c r="R757" s="2" t="inlineStr"/>
     </row>
-    <row r="758">
+    <row r="758" ht="15" customHeight="1">
       <c r="A758" t="inlineStr">
         <is>
           <t>A 43154-2023</t>
@@ -47105,7 +47105,7 @@
         <v>45183</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47151,6 +47151,68 @@
         <v>0</v>
       </c>
       <c r="R758" s="2" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>A 44008-2023</t>
+        </is>
+      </c>
+      <c r="B759" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C759" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G759" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0</v>
+      </c>
+      <c r="J759" t="n">
+        <v>0</v>
+      </c>
+      <c r="K759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N759" t="n">
+        <v>0</v>
+      </c>
+      <c r="O759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R759" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y759"/>
+  <dimension ref="A1:Y760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44980</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44826</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>43641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,14 +1428,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 52153-2020</t>
+          <t>A 3019-2020</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44117</v>
+        <v>43851</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,23 +1449,23 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>41.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1477,15 +1477,111 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>7</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Kråka
+Nordfladdermus
+Rödvingetrast
+Svartvit taggsvamp
+Grovticka
+Grön jordtunga</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 3019-2020.xlsx", "A 3019-2020")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 3019-2020.png", "A 3019-2020")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 3019-2020.docx", "A 3019-2020")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 3019-2020.docx", "A 3019-2020")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 3019-2020.docx", "A 3019-2020")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 3019-2020.docx", "A 3019-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 52153-2020</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44117</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1496,91 +1592,91 @@
 Vaddporing</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 52153-2020.xlsx", "A 52153-2020")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 52153-2020.png", "A 52153-2020")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/knärot/A 52153-2020.png", "A 52153-2020")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 52153-2020.docx", "A 52153-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 9245-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44616</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>UMEÅ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>2.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>5</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>7</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Gropticka
 Harticka
@@ -1591,92 +1687,92 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 9245-2022.xlsx", "A 9245-2022")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 9245-2022.png", "A 9245-2022")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 9245-2022.docx", "A 9245-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 17522-2022</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44679</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>UMEÅ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>3.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>4</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>7</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Smalfotad taggsvamp
 Blå taggsvamp
@@ -1687,87 +1783,87 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 17522-2022.xlsx", "A 17522-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 17522-2022.png", "A 17522-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 17522-2022.docx", "A 17522-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 30187-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45110</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>UMEÅ</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>12.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>7</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -1778,123 +1874,28 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 30187-2023.xlsx", "A 30187-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 30187-2023.png", "A 30187-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 30187-2023.docx", "A 30187-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 30187-2023.docx", "A 30187-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 30187-2023.docx", "A 30187-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 30187-2023.docx", "A 30187-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 3019-2020</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>43851</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>UMEÅ</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Kråka
-Nordfladdermus
-Rödvingetrast
-Svartvit taggsvamp
-Grön jordtunga</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/artfynd/A 3019-2020.xlsx", "A 3019-2020")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/kartor/A 3019-2020.png", "A 3019-2020")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomål/A 3019-2020.docx", "A 3019-2020")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/klagomålsmail/A 3019-2020.docx", "A 3019-2020")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsyn/A 3019-2020.docx", "A 3019-2020")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UMEA/tillsynsmail/A 3019-2020.docx", "A 3019-2020")</f>
         <v/>
       </c>
     </row>
@@ -1908,7 +1909,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2003,7 +2004,7 @@
         <v>44427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2099,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2189,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2279,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2367,7 +2368,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2457,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2546,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2640,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2733,7 +2734,7 @@
         <v>45019</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2828,7 @@
         <v>45069</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2916,7 +2917,7 @@
         <v>43846</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3004,7 +3005,7 @@
         <v>43900</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3097,7 +3098,7 @@
         <v>44060</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3190,7 +3191,7 @@
         <v>44407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3283,7 +3284,7 @@
         <v>43391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3370,7 +3371,7 @@
         <v>43851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,7 +3458,7 @@
         <v>43901</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3544,7 +3545,7 @@
         <v>44068</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3637,7 @@
         <v>44320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3723,7 +3724,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3816,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3903,7 @@
         <v>44714</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3989,7 +3990,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4081,7 +4082,7 @@
         <v>44925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4168,7 +4169,7 @@
         <v>45040</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4256,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4342,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4432,7 +4433,7 @@
         <v>44384</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4519,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4610,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4701,7 @@
         <v>44407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4792,7 @@
         <v>44439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4882,7 +4883,7 @@
         <v>44619</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4968,7 +4969,7 @@
         <v>44839</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5054,7 +5055,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5140,7 +5141,7 @@
         <v>45043</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5226,7 +5227,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5311,7 +5312,7 @@
         <v>43749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5396,7 +5397,7 @@
         <v>43966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5481,7 +5482,7 @@
         <v>44102</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5566,7 +5567,7 @@
         <v>44117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5651,7 +5652,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5741,7 +5742,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5831,7 +5832,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5921,7 +5922,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6006,7 +6007,7 @@
         <v>44407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6096,7 +6097,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6186,7 +6187,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6276,7 +6277,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6366,7 +6367,7 @@
         <v>44446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6451,7 +6452,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6536,7 +6537,7 @@
         <v>44631</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6626,7 +6627,7 @@
         <v>44673</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6711,7 +6712,7 @@
         <v>44715</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6796,7 +6797,7 @@
         <v>44837</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6881,7 +6882,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6971,7 +6972,7 @@
         <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7056,7 +7057,7 @@
         <v>44993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7141,7 +7142,7 @@
         <v>45014</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7231,7 +7232,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7321,7 +7322,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7411,7 +7412,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7496,7 +7497,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7581,7 +7582,7 @@
         <v>45165</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7666,7 +7667,7 @@
         <v>43332</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7728,7 +7729,7 @@
         <v>43346</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7785,7 +7786,7 @@
         <v>43350</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7842,7 +7843,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7904,7 +7905,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7961,7 +7962,7 @@
         <v>43354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8018,7 +8019,7 @@
         <v>43355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8075,7 +8076,7 @@
         <v>43364</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8132,7 +8133,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8189,7 +8190,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8246,7 +8247,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8303,7 +8304,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8360,7 +8361,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8417,7 +8418,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8474,7 +8475,7 @@
         <v>43374</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8531,7 +8532,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8588,7 +8589,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8645,7 +8646,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8702,7 +8703,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8759,7 +8760,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8816,7 +8817,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8873,7 +8874,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8930,7 +8931,7 @@
         <v>43405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8987,7 +8988,7 @@
         <v>43406</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9044,7 +9045,7 @@
         <v>43409</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9101,7 +9102,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9158,7 +9159,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9220,7 +9221,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9277,7 +9278,7 @@
         <v>43415</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9334,7 +9335,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9391,7 +9392,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9448,7 +9449,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9505,7 +9506,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9562,7 +9563,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9619,7 +9620,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9676,7 +9677,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9733,7 +9734,7 @@
         <v>43423</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9790,7 +9791,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9847,7 +9848,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9909,7 +9910,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9966,7 +9967,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10028,7 +10029,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10085,7 +10086,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10142,7 +10143,7 @@
         <v>43440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10199,7 +10200,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10256,7 +10257,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10318,7 +10319,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10375,7 +10376,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10432,7 +10433,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10489,7 +10490,7 @@
         <v>43452</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10546,7 +10547,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10603,7 +10604,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10660,7 +10661,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10717,7 +10718,7 @@
         <v>43464</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10779,7 +10780,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10836,7 +10837,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10893,7 +10894,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10955,7 +10956,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11012,7 +11013,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11069,7 +11070,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11126,7 +11127,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11183,7 +11184,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11240,7 +11241,7 @@
         <v>43476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11297,7 +11298,7 @@
         <v>43481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11354,7 +11355,7 @@
         <v>43482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11416,7 +11417,7 @@
         <v>43487</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11473,7 +11474,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11530,7 +11531,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11587,7 +11588,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11644,7 +11645,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11701,7 +11702,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11758,7 +11759,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11815,7 +11816,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11872,7 +11873,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11929,7 +11930,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11986,7 +11987,7 @@
         <v>43522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12043,7 +12044,7 @@
         <v>43535</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12105,7 +12106,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12162,7 +12163,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12219,7 +12220,7 @@
         <v>43539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12276,7 +12277,7 @@
         <v>43549</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12333,7 +12334,7 @@
         <v>43550</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12390,7 +12391,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12447,7 +12448,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12504,7 +12505,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12561,7 +12562,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12618,7 +12619,7 @@
         <v>43572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12675,7 +12676,7 @@
         <v>43588</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12737,7 +12738,7 @@
         <v>43591</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12799,7 +12800,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12856,7 +12857,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12913,7 +12914,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12970,7 +12971,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13027,7 +13028,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13084,7 +13085,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13141,7 +13142,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13198,7 +13199,7 @@
         <v>43613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13255,7 +13256,7 @@
         <v>43620</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13312,7 +13313,7 @@
         <v>43623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13369,7 +13370,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13427,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13483,7 +13484,7 @@
         <v>43633</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13540,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13602,7 +13603,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13659,7 +13660,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13716,7 +13717,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13773,7 +13774,7 @@
         <v>43640</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13830,7 +13831,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13887,7 +13888,7 @@
         <v>43642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13944,7 +13945,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14001,7 +14002,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14058,7 +14059,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14115,7 +14116,7 @@
         <v>43650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14172,7 +14173,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14229,7 +14230,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14286,7 +14287,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14343,7 +14344,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14400,7 +14401,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14462,7 +14463,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14519,7 +14520,7 @@
         <v>43699</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14581,7 +14582,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14643,7 +14644,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14705,7 +14706,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14767,7 +14768,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14824,7 +14825,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14881,7 +14882,7 @@
         <v>43707</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14938,7 +14939,7 @@
         <v>43714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14995,7 +14996,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15052,7 +15053,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15109,7 +15110,7 @@
         <v>43719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15171,7 +15172,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15228,7 +15229,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15285,7 +15286,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15347,7 +15348,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15404,7 +15405,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15466,7 +15467,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15523,7 +15524,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15580,7 +15581,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15637,7 +15638,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15694,7 +15695,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15751,7 +15752,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15813,7 +15814,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15870,7 +15871,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15927,7 +15928,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15984,7 +15985,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16046,7 +16047,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16103,7 +16104,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16165,7 +16166,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16222,7 +16223,7 @@
         <v>43751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16279,7 +16280,7 @@
         <v>43753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16336,7 +16337,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16398,7 +16399,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16455,7 +16456,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16512,7 +16513,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16569,7 +16570,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16631,7 +16632,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16688,7 +16689,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16745,7 +16746,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16802,7 +16803,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16859,7 +16860,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16916,7 +16917,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16973,7 +16974,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17030,7 +17031,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17092,7 +17093,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17149,7 +17150,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17206,7 +17207,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17268,7 +17269,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17325,7 +17326,7 @@
         <v>43795</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17382,7 +17383,7 @@
         <v>43796</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17444,7 +17445,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17501,7 +17502,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17558,7 +17559,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17615,7 +17616,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17672,7 +17673,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17729,7 +17730,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17786,7 +17787,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17843,7 +17844,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17900,7 +17901,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17957,7 +17958,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18014,7 +18015,7 @@
         <v>43815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18071,7 +18072,7 @@
         <v>43820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18128,7 +18129,7 @@
         <v>43843</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18185,7 +18186,7 @@
         <v>43844</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18242,7 +18243,7 @@
         <v>43853</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18299,7 +18300,7 @@
         <v>43859</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18356,7 +18357,7 @@
         <v>43873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18413,7 +18414,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18470,7 +18471,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18527,7 +18528,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18584,7 +18585,7 @@
         <v>43887</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18641,7 +18642,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18703,7 +18704,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18760,7 +18761,7 @@
         <v>43889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18817,7 +18818,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18874,7 +18875,7 @@
         <v>43910</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18931,7 +18932,7 @@
         <v>43913</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18988,7 +18989,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19045,7 +19046,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19102,7 +19103,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19159,7 +19160,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19216,7 +19217,7 @@
         <v>43930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19273,7 +19274,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19330,7 +19331,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19387,7 +19388,7 @@
         <v>43942</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19444,7 +19445,7 @@
         <v>43945</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19501,7 +19502,7 @@
         <v>43950</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19558,7 +19559,7 @@
         <v>43952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19615,7 +19616,7 @@
         <v>43955</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19672,7 +19673,7 @@
         <v>43959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19734,7 +19735,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19791,7 +19792,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19848,7 +19849,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19910,7 +19911,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19967,7 +19968,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20029,7 +20030,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20086,7 +20087,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20143,7 +20144,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20200,7 +20201,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20262,7 +20263,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20319,7 +20320,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20376,7 +20377,7 @@
         <v>43976</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20438,7 +20439,7 @@
         <v>43978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20500,7 +20501,7 @@
         <v>43980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20557,7 +20558,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20619,7 +20620,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20676,7 +20677,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20733,7 +20734,7 @@
         <v>43993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20790,7 +20791,7 @@
         <v>43999</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20847,7 +20848,7 @@
         <v>44000</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20904,7 +20905,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20966,7 +20967,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21023,7 +21024,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21080,7 +21081,7 @@
         <v>44006</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21137,7 +21138,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21194,7 +21195,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21251,7 +21252,7 @@
         <v>44011</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21308,7 +21309,7 @@
         <v>44012</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21365,7 +21366,7 @@
         <v>44018</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21427,7 +21428,7 @@
         <v>44019</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21484,7 +21485,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21541,7 +21542,7 @@
         <v>44046</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21598,7 +21599,7 @@
         <v>44050</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21660,7 +21661,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21717,7 +21718,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21774,7 +21775,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21836,7 +21837,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21898,7 +21899,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21960,7 +21961,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22017,7 +22018,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22074,7 +22075,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22131,7 +22132,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22188,7 +22189,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22245,7 +22246,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22302,7 +22303,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22359,7 +22360,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22416,7 +22417,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22473,7 +22474,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22535,7 +22536,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22592,7 +22593,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22649,7 +22650,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22706,7 +22707,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22763,7 +22764,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22825,7 +22826,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22887,7 +22888,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22944,7 +22945,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23006,7 +23007,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23063,7 +23064,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23120,7 +23121,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23177,7 +23178,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23234,7 +23235,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23291,7 +23292,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23353,7 +23354,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23410,7 +23411,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23467,7 +23468,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23529,7 +23530,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23586,7 +23587,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23643,7 +23644,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23700,7 +23701,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23757,7 +23758,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23814,7 +23815,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23871,7 +23872,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23933,7 +23934,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23990,7 +23991,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24047,7 +24048,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24104,7 +24105,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24161,7 +24162,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24218,7 +24219,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24275,7 +24276,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24332,7 +24333,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24389,7 +24390,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24446,7 +24447,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24503,7 +24504,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24560,7 +24561,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24617,7 +24618,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24674,7 +24675,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24731,7 +24732,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24788,7 +24789,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24845,7 +24846,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24902,7 +24903,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24959,7 +24960,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25021,7 +25022,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25078,7 +25079,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25135,7 +25136,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25192,7 +25193,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25249,7 +25250,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25306,7 +25307,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25363,7 +25364,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25420,7 +25421,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25477,7 +25478,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25534,7 +25535,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25591,7 +25592,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25648,7 +25649,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25705,7 +25706,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25762,7 +25763,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25819,7 +25820,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25876,7 +25877,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25933,7 +25934,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25990,7 +25991,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26047,7 +26048,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26104,7 +26105,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26161,7 +26162,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26218,7 +26219,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26280,7 +26281,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26337,7 +26338,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26394,7 +26395,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26451,7 +26452,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26508,7 +26509,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26565,7 +26566,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26622,7 +26623,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26679,7 +26680,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26736,7 +26737,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26793,7 +26794,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26850,7 +26851,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26907,7 +26908,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26964,7 +26965,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27021,7 +27022,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27078,7 +27079,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27135,7 +27136,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27192,7 +27193,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27249,7 +27250,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27306,7 +27307,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27363,7 +27364,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27420,7 +27421,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27477,7 +27478,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27534,7 +27535,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27591,7 +27592,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27648,7 +27649,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27710,7 +27711,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27767,7 +27768,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27829,7 +27830,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27886,7 +27887,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27948,7 +27949,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28005,7 +28006,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28062,7 +28063,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28124,7 +28125,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28186,7 +28187,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28248,7 +28249,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28310,7 +28311,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28372,7 +28373,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28434,7 +28435,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28496,7 +28497,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28558,7 +28559,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28620,7 +28621,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28682,7 +28683,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28739,7 +28740,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28801,7 +28802,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28863,7 +28864,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28925,7 +28926,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28987,7 +28988,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29044,7 +29045,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29106,7 +29107,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29168,7 +29169,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29230,7 +29231,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29292,7 +29293,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29354,7 +29355,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29416,7 +29417,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29478,7 +29479,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29535,7 +29536,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29597,7 +29598,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29659,7 +29660,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29721,7 +29722,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29783,7 +29784,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29846,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29902,7 +29903,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29965,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30022,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30083,7 +30084,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30145,7 +30146,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30207,7 +30208,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30269,7 +30270,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30331,7 +30332,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30393,7 +30394,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30455,7 +30456,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30517,7 +30518,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30579,7 +30580,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30641,7 +30642,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30703,7 +30704,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30765,7 +30766,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30827,7 +30828,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30889,7 +30890,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30951,7 +30952,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31013,7 +31014,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31075,7 +31076,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31137,7 +31138,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31199,7 +31200,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31261,7 +31262,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31323,7 +31324,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31385,7 +31386,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31447,7 +31448,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31509,7 +31510,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31571,7 +31572,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31633,7 +31634,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31695,7 +31696,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31757,7 +31758,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31819,7 +31820,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31881,7 +31882,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31943,7 +31944,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32000,7 +32001,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32057,7 +32058,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32114,7 +32115,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32171,7 +32172,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32228,7 +32229,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32285,7 +32286,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32342,7 +32343,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32399,7 +32400,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32456,7 +32457,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32513,7 +32514,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32575,7 +32576,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32632,7 +32633,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32694,7 +32695,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32751,7 +32752,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32808,7 +32809,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32865,7 +32866,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32922,7 +32923,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32979,7 +32980,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33036,7 +33037,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33093,7 +33094,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33150,7 +33151,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33207,7 +33208,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33264,7 +33265,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33321,7 +33322,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33383,7 +33384,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33440,7 +33441,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33497,7 +33498,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33554,7 +33555,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33611,7 +33612,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33668,7 +33669,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33725,7 +33726,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33782,7 +33783,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33839,7 +33840,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33896,7 +33897,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33953,7 +33954,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34010,7 +34011,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34067,7 +34068,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34124,7 +34125,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34181,7 +34182,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34238,7 +34239,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34295,7 +34296,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34357,7 +34358,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34414,7 +34415,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34471,7 +34472,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34528,7 +34529,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34585,7 +34586,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34642,7 +34643,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34699,7 +34700,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34761,7 +34762,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34823,7 +34824,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34880,7 +34881,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34937,7 +34938,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34994,7 +34995,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35056,7 +35057,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35113,7 +35114,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35170,7 +35171,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35227,7 +35228,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35284,7 +35285,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35341,7 +35342,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35398,7 +35399,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35455,7 +35456,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35512,7 +35513,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35569,7 +35570,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35626,7 +35627,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35683,7 +35684,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35745,7 +35746,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35802,7 +35803,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35859,7 +35860,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35921,7 +35922,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35978,7 +35979,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36035,7 +36036,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36092,7 +36093,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36149,7 +36150,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36211,7 +36212,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36273,7 +36274,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36330,7 +36331,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36387,7 +36388,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36444,7 +36445,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36501,7 +36502,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36558,7 +36559,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36615,7 +36616,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36672,7 +36673,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36729,7 +36730,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36786,7 +36787,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36843,7 +36844,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36905,7 +36906,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36962,7 +36963,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37019,7 +37020,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37076,7 +37077,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37133,7 +37134,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37190,7 +37191,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37247,7 +37248,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37304,7 +37305,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37361,7 +37362,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37418,7 +37419,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37475,7 +37476,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37532,7 +37533,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37589,7 +37590,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37646,7 +37647,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37703,7 +37704,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37765,7 +37766,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37827,7 +37828,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37884,7 +37885,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37941,7 +37942,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37998,7 +37999,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38055,7 +38056,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38117,7 +38118,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38179,7 +38180,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38241,7 +38242,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38298,7 +38299,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38355,7 +38356,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38412,7 +38413,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38469,7 +38470,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38526,7 +38527,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38588,7 +38589,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38650,7 +38651,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38712,7 +38713,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38769,7 +38770,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38831,7 +38832,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38888,7 +38889,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38950,7 +38951,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39012,7 +39013,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39069,7 +39070,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39126,7 +39127,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39183,7 +39184,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39240,7 +39241,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39297,7 +39298,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39354,7 +39355,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39411,7 +39412,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39468,7 +39469,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39525,7 +39526,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39582,7 +39583,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39639,7 +39640,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39696,7 +39697,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39753,7 +39754,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39810,7 +39811,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39872,7 +39873,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39934,7 +39935,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39991,7 +39992,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40048,7 +40049,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40105,7 +40106,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40162,7 +40163,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40219,7 +40220,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40281,7 +40282,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40343,7 +40344,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40400,7 +40401,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40457,7 +40458,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40519,7 +40520,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40576,7 +40577,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40633,7 +40634,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40690,7 +40691,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40752,7 +40753,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40814,7 +40815,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40871,7 +40872,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40928,7 +40929,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40990,7 +40991,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41047,7 +41048,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41109,7 +41110,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41166,7 +41167,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41228,7 +41229,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41290,7 +41291,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41352,7 +41353,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41409,7 +41410,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41466,7 +41467,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41528,7 +41529,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41590,7 +41591,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41647,7 +41648,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41709,7 +41710,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41766,7 +41767,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41828,7 +41829,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41885,7 +41886,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41947,7 +41948,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42004,7 +42005,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42066,7 +42067,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42123,7 +42124,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42180,7 +42181,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42237,7 +42238,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42299,7 +42300,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42361,7 +42362,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42423,7 +42424,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42480,7 +42481,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42542,7 +42543,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42604,7 +42605,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42666,7 +42667,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42723,7 +42724,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42780,7 +42781,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42837,7 +42838,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42894,7 +42895,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42951,7 +42952,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43008,7 +43009,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43065,7 +43066,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43122,7 +43123,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43179,7 +43180,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43236,7 +43237,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43293,7 +43294,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43350,7 +43351,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43407,7 +43408,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43464,7 +43465,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43521,7 +43522,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43578,7 +43579,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43635,7 +43636,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43692,7 +43693,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43749,7 +43750,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43806,7 +43807,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43863,7 +43864,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43920,7 +43921,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43982,7 +43983,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44039,7 +44040,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44096,7 +44097,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44153,7 +44154,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44210,7 +44211,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44267,7 +44268,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44324,7 +44325,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44381,7 +44382,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44438,7 +44439,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44495,7 +44496,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44552,7 +44553,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44609,7 +44610,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44666,7 +44667,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44723,7 +44724,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44780,7 +44781,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44837,7 +44838,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44894,7 +44895,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44951,7 +44952,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45008,7 +45009,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45065,7 +45066,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45122,7 +45123,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45179,7 +45180,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45236,7 +45237,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45293,7 +45294,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45355,7 +45356,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45412,7 +45413,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45469,7 +45470,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45531,7 +45532,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45588,7 +45589,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45650,7 +45651,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45707,7 +45708,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45764,7 +45765,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45821,7 +45822,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45878,7 +45879,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45935,7 +45936,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45997,7 +45998,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46054,7 +46055,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46111,7 +46112,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46168,7 +46169,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46225,7 +46226,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46282,7 +46283,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46339,7 +46340,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46396,7 +46397,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46458,7 +46459,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46515,7 +46516,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46572,7 +46573,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46629,7 +46630,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46686,7 +46687,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46748,7 +46749,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46810,7 +46811,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46867,7 +46868,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46924,7 +46925,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46986,7 +46987,7 @@
         <v>45182</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47048,7 +47049,7 @@
         <v>45183</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47105,7 +47106,7 @@
         <v>45183</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47152,7 +47153,7 @@
       </c>
       <c r="R758" s="2" t="inlineStr"/>
     </row>
-    <row r="759">
+    <row r="759" ht="15" customHeight="1">
       <c r="A759" t="inlineStr">
         <is>
           <t>A 44008-2023</t>
@@ -47162,7 +47163,7 @@
         <v>45188</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47213,6 +47214,68 @@
         <v>0</v>
       </c>
       <c r="R759" s="2" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>A 44459-2023</t>
+        </is>
+      </c>
+      <c r="B760" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C760" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>UMEÅ</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G760" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="n">
+        <v>0</v>
+      </c>
+      <c r="J760" t="n">
+        <v>0</v>
+      </c>
+      <c r="K760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N760" t="n">
+        <v>0</v>
+      </c>
+      <c r="O760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R760" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44797</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44868</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44973</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44980</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44826</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>43641</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>43851</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44616</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44679</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45019</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45069</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43846</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43900</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44060</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>44407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43901</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44068</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44714</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>45040</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44384</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44439</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44619</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44839</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>45043</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44102</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44410</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44631</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44673</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44715</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44837</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44904</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45014</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45165</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43332</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43346</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>43350</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43353</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43355</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43364</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43368</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43374</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43392</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43406</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43409</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43415</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43416</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43422</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43423</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43424</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43433</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43451</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43452</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43464</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43473</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43474</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43487</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43495</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>43518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>43522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43535</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43549</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43550</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43553</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43572</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43588</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>43591</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>43593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>43595</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>43605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>43613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>43620</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>43623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>43628</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43633</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43634</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>43639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>43640</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>43642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>43649</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>43650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>43693</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>43699</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43707</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>43714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>43717</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>43719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>43720</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>43724</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43753</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43776</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43787</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43795</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43796</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43801</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43805</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43820</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43843</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43844</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43853</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43859</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43887</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43888</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>43909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>43910</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>43913</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>43921</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43928</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>43930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>43941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43942</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>43945</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>43950</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>43952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>43955</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>43959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>43961</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>43963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43966</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43976</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>43978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>43980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>43986</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>43993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>43999</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44000</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44005</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44006</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44008</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44011</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44012</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44018</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44019</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44046</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44050</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44078</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44083</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44084</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44090</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44092</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44095</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44102</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44104</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44105</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44106</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44109</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44113</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>44123</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>44131</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>44132</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44133</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44141</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44143</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>44144</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>44146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44151</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44153</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44158</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44160</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44162</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44165</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44179</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44182</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44186</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44194</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44214</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44221</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44224</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44232</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44246</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44249</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44251</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44257</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44274</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44293</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44294</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44299</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44305</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44306</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44308</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44309</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44320</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44321</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44330</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44341</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44343</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44350</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44354</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44355</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>44361</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>44376</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44379</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44382</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>44385</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>44406</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28864,7 +28864,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>44407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29355,7 +29355,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44410</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30704,7 +30704,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31882,7 +31882,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31944,7 +31944,7 @@
         <v>44427</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44432</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44433</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44438</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44452</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44453</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44455</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>44456</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>44463</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>44467</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44467</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>44469</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>44476</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>44480</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>44483</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>44495</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>44496</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44511</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>44518</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>44533</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>44533</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>44533</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>44543</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>44550</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>44550</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44550</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>44550</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>44560</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>44566</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44580</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44580</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44587</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44599</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>44600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>44602</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44606</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>44606</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44606</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>44606</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44609</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44631</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44631</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34824,7 +34824,7 @@
         <v>44672</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44679</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>44679</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>44687</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35057,7 +35057,7 @@
         <v>44714</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35114,7 +35114,7 @@
         <v>44715</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35171,7 +35171,7 @@
         <v>44729</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>44729</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>44729</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35342,7 +35342,7 @@
         <v>44734</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35399,7 +35399,7 @@
         <v>44740</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>44740</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35513,7 +35513,7 @@
         <v>44740</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35570,7 +35570,7 @@
         <v>44741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35627,7 +35627,7 @@
         <v>44742</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>44756</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>44772</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44774</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44781</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44788</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>44790</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>44810</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>44811</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>44813</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>44813</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>44816</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>44818</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>44825</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>44825</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44830</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44838</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>44839</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>44839</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>44839</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44840</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44840</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44840</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44840</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37077,7 +37077,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>44841</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>44841</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37248,7 +37248,7 @@
         <v>44846</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37305,7 +37305,7 @@
         <v>44846</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>44846</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>44846</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44846</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>44846</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>44847</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>44847</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>44848</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>44848</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37828,7 +37828,7 @@
         <v>44851</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37885,7 +37885,7 @@
         <v>44855</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37942,7 +37942,7 @@
         <v>44858</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37999,7 +37999,7 @@
         <v>44860</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38056,7 +38056,7 @@
         <v>44861</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>44861</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44872</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>44873</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38470,7 +38470,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38651,7 +38651,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44876</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>44896</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>44896</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44900</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>44902</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         <v>44904</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>44914</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39184,7 +39184,7 @@
         <v>44916</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>44917</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>44920</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39355,7 +39355,7 @@
         <v>44931</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39412,7 +39412,7 @@
         <v>44937</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39469,7 +39469,7 @@
         <v>44939</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39526,7 +39526,7 @@
         <v>44943</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>44944</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39640,7 +39640,7 @@
         <v>44944</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39697,7 +39697,7 @@
         <v>44944</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         <v>44944</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39811,7 +39811,7 @@
         <v>44953</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39873,7 +39873,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>44958</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>44958</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>44964</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>44972</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44977</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>44980</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44980</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44981</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>44983</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>44984</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44984</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>44987</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>45006</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>45007</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45009</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45013</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>45014</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>45015</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41048,7 +41048,7 @@
         <v>45016</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45016</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45016</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>45016</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45016</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41353,7 +41353,7 @@
         <v>45016</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>45017</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41467,7 +41467,7 @@
         <v>45019</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41529,7 +41529,7 @@
         <v>45019</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>45020</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45022</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41710,7 +41710,7 @@
         <v>45022</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41767,7 +41767,7 @@
         <v>45028</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41829,7 +41829,7 @@
         <v>45030</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41886,7 +41886,7 @@
         <v>45033</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>45033</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>45034</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>45034</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42181,7 +42181,7 @@
         <v>45034</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>45037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>45037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>45037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42481,7 +42481,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>45041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42605,7 +42605,7 @@
         <v>45041</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>45043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>45043</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>45043</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45047</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>45048</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>45048</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>45055</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>45055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>45056</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>45056</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>45058</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>45065</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>45068</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>45070</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>45071</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>45071</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>45076</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45077</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>45078</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>45078</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43983,7 +43983,7 @@
         <v>45078</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44040,7 +44040,7 @@
         <v>45078</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44097,7 +44097,7 @@
         <v>45082</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44154,7 +44154,7 @@
         <v>45084</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44211,7 +44211,7 @@
         <v>45085</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
         <v>45085</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>45086</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45086</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>45089</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44496,7 +44496,7 @@
         <v>45091</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44553,7 +44553,7 @@
         <v>45091</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44610,7 +44610,7 @@
         <v>45091</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44667,7 +44667,7 @@
         <v>45091</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>45091</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>45096</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44838,7 +44838,7 @@
         <v>45096</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44895,7 +44895,7 @@
         <v>45096</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44952,7 +44952,7 @@
         <v>45096</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45009,7 +45009,7 @@
         <v>45096</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>45096</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>45096</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45237,7 +45237,7 @@
         <v>45099</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45294,7 +45294,7 @@
         <v>45099</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>45103</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45106</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45532,7 +45532,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45589,7 +45589,7 @@
         <v>45110</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>45111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>45112</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45112</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>45113</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>45128</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>45147</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>45148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>45149</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>45152</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46283,7 +46283,7 @@
         <v>45154</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46340,7 +46340,7 @@
         <v>45160</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46397,7 +46397,7 @@
         <v>45160</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>45160</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46516,7 +46516,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46573,7 +46573,7 @@
         <v>45165</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46630,7 +46630,7 @@
         <v>45166</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46687,7 +46687,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>45167</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46811,7 +46811,7 @@
         <v>45167</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46868,7 +46868,7 @@
         <v>45168</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46925,7 +46925,7 @@
         <v>45175</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46987,7 +46987,7 @@
         <v>45182</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47049,7 +47049,7 @@
         <v>45183</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         <v>45183</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47163,7 +47163,7 @@
         <v>45188</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47225,7 +47225,7 @@
         <v>45189</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44821</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44980</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>43640</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44427</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44797</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44868</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>44826</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45020</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43851</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44616</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44679</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43895</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44867</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44157</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45014</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45019</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>45069</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43900</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44060</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>44407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43851</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43901</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44320</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44615</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44714</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44862</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44925</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>45040</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44384</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44406</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44439</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44619</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44839</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44874</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>45043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43479</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43749</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>44102</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>44117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>44406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44410</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>44455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44631</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44673</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44715</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44837</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>44862</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44904</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>45104</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45128</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>45152</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>45165</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>43332</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43346</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43350</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43353</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43353</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43354</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43355</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43364</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43368</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43368</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43370</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43374</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43384</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43385</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43385</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43392</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43392</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43405</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>43406</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43409</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43413</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43415</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43416</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43416</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43419</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43419</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43422</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43422</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43424</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43424</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43424</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43433</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43440</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43451</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43451</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43452</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>43455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>43455</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>43464</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>43467</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>43467</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>43473</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>43475</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>43475</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>43476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>43481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>43487</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43495</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>43504</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>43509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>43518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>43537</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>43538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43549</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43550</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>43553</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>43553</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>43556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>43572</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>43588</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43591</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43595</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43605</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43613</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43620</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43623</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43628</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43628</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43633</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43634</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43639</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43639</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43640</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43641</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>43642</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>43643</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>43649</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>43649</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>43650</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>43651</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>43651</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>43693</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>43693</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43699</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>43704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>43706</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>43707</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43719</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43724</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43727</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43735</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>43739</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43742</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43751</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>43770</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43776</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>43782</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>43782</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43787</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>43788</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43788</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43795</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43796</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>43801</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>43801</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43801</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>43801</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43802</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>43802</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>43802</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>43805</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>43805</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>43820</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>43843</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>43844</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>43853</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>43859</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>43873</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>43885</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>43885</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>43885</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>43887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>43888</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>43909</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>43910</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>43921</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>43921</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>43928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>43930</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>43941</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>43942</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>43945</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>43950</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>43952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>43955</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>43959</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43961</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43961</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>43963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>43963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>43965</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>43965</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>43965</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>43966</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>43966</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>43976</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43978</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>43980</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>43986</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43986</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43991</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43999</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44000</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44005</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44006</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44008</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44008</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44011</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44012</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44019</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44021</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44046</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44050</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>44068</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>44073</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44083</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44084</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44090</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44092</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44095</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44102</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44102</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44104</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44105</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44105</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44106</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44109</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44110</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44113</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44123</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44123</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44124</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44131</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44132</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44133</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>44140</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>44141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44143</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44144</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44146</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>44146</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44147</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44151</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44153</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44155</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44158</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44158</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44158</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44160</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44160</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44162</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44165</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44179</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44182</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44186</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44186</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44186</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44186</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44187</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44194</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>44214</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>44214</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44214</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44217</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>44221</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>44222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44222</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         <v>44224</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>44232</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>44232</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44246</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>44249</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44249</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>44249</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44251</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>44257</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>44274</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26090,7 +26090,7 @@
         <v>44293</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26147,7 +26147,7 @@
         <v>44294</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>44299</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26261,7 +26261,7 @@
         <v>44305</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>44305</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>44306</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>44308</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>44309</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>44312</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44313</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44314</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>44314</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>44321</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>44326</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>44326</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>44330</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>44341</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>44343</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>44350</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>44354</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>44354</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>44355</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>44355</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44361</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>44361</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>44376</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>44376</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44379</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44382</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>44382</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>44385</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>44406</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>44406</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44406</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44406</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44406</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>44406</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28410,7 +28410,7 @@
         <v>44406</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>44406</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44406</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44406</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44406</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44406</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>44406</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28839,7 +28839,7 @@
         <v>44406</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>44406</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44406</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44406</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44407</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44407</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29268,7 +29268,7 @@
         <v>44407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>44407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44407</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44407</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>44407</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>44407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>44407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>44407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44410</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44410</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>44410</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>44410</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44410</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44410</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44410</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44410</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30989,7 +30989,7 @@
         <v>44410</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44410</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44410</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44410</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44410</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44410</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44410</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>44410</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44410</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44410</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44410</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44410</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
         <v>44410</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31857,7 +31857,7 @@
         <v>44410</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44410</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44410</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44427</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>44432</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44433</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44438</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44452</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44452</v>
       </c>
       <c r="C503" s="1" t="n">